--- a/data/Gerardo TorresT3-2024.xlsx
+++ b/data/Gerardo TorresT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I191"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>568.93939841</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -3790,6 +3792,7 @@
         <v>6.36e-05</v>
       </c>
     </row>
+    <row r="190"/>
     <row r="191">
       <c r="D191" s="6" t="inlineStr">
         <is>
@@ -3815,7 +3818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3828,6 +3831,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3835,6 +3840,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3842,6 +3848,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -4198,6 +4205,7 @@
         <v>0.02157733</v>
       </c>
     </row>
+    <row r="35"/>
     <row r="36">
       <c r="C36" s="6" t="inlineStr">
         <is>
@@ -4223,7 +4231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,6 +4244,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -4243,6 +4253,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -4250,6 +4261,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -4424,6 +4436,7 @@
         <v>3.715e-05</v>
       </c>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="C22" s="6" t="inlineStr">
         <is>
